--- a/data_xlsx/期货结算价(连续)_布伦特原油.xlsx
+++ b/data_xlsx/期货结算价(连续)_布伦特原油.xlsx
@@ -28098,8 +28098,184 @@
         <v>83.64</v>
       </c>
     </row>
+    <row r="3503">
+      <c r="A3503" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B3503" s="2" t="n">
+        <v>82.92</v>
+      </c>
+    </row>
     <row r="3504">
-      <c r="A3504" s="3" t="inlineStr">
+      <c r="A3504" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B3504" s="2" t="n">
+        <v>84.24</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B3505" s="2" t="n">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B3506" s="2" t="n">
+        <v>85.56</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B3507" s="2" t="n">
+        <v>84.91</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B3508" s="2" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B3509" s="2" t="n">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B3510" s="2" t="n">
+        <v>86.24</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B3511" s="2" t="n">
+        <v>85.34</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B3512" s="2" t="n">
+        <v>86.17</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B3513" s="2" t="n">
+        <v>87.55</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B3514" s="2" t="n">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B3515" s="2" t="n">
+        <v>86.81</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B3516" s="2" t="n">
+        <v>86.21</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B3517" s="2" t="n">
+        <v>84.89</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B3518" s="2" t="n">
+        <v>83.45</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B3519" s="2" t="n">
+        <v>84.12</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B3520" s="2" t="n">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B3521" s="2" t="n">
+        <v>84.46</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B3522" s="2" t="n">
+        <v>84.03</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B3523" s="2" t="n">
+        <v>83.21</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" s="1" t="n">
+        <v>45162.0</v>
+      </c>
+      <c r="B3524" s="2" t="n">
+        <v>83.36</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
